--- a/Prueba METRA.xlsx
+++ b/Prueba METRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Direccion Soporte\Documents\UiPath\Robot METRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F210E-5928-4E7D-AA3D-D4EC1E9EE788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A7191-BC2E-4E85-95EF-51CDB3E6A869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{79CE21ED-A7EB-4C5A-9AB2-644C46D84912}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -797,10 +797,10 @@
         <v>36</v>
       </c>
       <c r="G3" s="3">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H3" s="3">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I3" s="3">
         <v>90</v>
